--- a/src/main/resources/com/test/demo/multisheet_template2.xlsx
+++ b/src/main/resources/com/test/demo/multisheet_template2.xlsx
@@ -19,6 +19,30 @@
     <author>만든 이</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>만든 이:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="D5")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0">
       <text>
         <r>
@@ -536,7 +560,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
